--- a/database.xlsx
+++ b/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>video_id</t>
   </si>
@@ -28,6 +28,39 @@
   </si>
   <si>
     <t>age_restricted</t>
+  </si>
+  <si>
+    <t>birh9MMwzHI</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>j3PLLOreTLY</t>
+  </si>
+  <si>
+    <t>qen0ZlZM0ZA</t>
+  </si>
+  <si>
+    <t>FAomglv541s</t>
+  </si>
+  <si>
+    <t>KDjBEY_3qCI</t>
+  </si>
+  <si>
+    <t>UeMHfcDD6QE</t>
+  </si>
+  <si>
+    <t>469OGnmNdCQ</t>
+  </si>
+  <si>
+    <t>nsfs</t>
+  </si>
+  <si>
+    <t>questionable</t>
+  </si>
+  <si>
+    <t>1:00 -1:10 Talks about sex</t>
   </si>
 </sst>
 </file>
@@ -359,16 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
@@ -385,6 +418,86 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="21015" windowHeight="9990"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="21012" windowHeight="9996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>video_id</t>
   </si>
@@ -60,7 +60,16 @@
     <t>questionable</t>
   </si>
   <si>
-    <t>1:00 -1:10 Talks about sex</t>
+    <t>Cute puppy video. You good bro</t>
+  </si>
+  <si>
+    <t>JCS Video. Skip 3:00 - 4:00</t>
+  </si>
+  <si>
+    <t>1:00 -1:10 Talks about sex. Don’t watch on stream</t>
+  </si>
+  <si>
+    <t>Gordon curses at the Lettuce 0:23 - 0:45</t>
   </si>
 </sst>
 </file>
@@ -395,15 +404,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -424,6 +433,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -435,8 +447,11 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -468,8 +483,11 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -491,10 +509,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -511,7 +529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -523,7 +541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="21012" windowHeight="9996"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>video_id</t>
   </si>
@@ -33,12 +33,21 @@
     <t>birh9MMwzHI</t>
   </si>
   <si>
+    <t>Cute puppy video. You good bro</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
     <t>j3PLLOreTLY</t>
   </si>
   <si>
+    <t>JCS Video. Skip 3:00 - 4:00</t>
+  </si>
+  <si>
+    <t>questionable</t>
+  </si>
+  <si>
     <t>qen0ZlZM0ZA</t>
   </si>
   <si>
@@ -48,28 +57,25 @@
     <t>KDjBEY_3qCI</t>
   </si>
   <si>
+    <t>Gordon curses at the Lettuce 0:23 - 0:45</t>
+  </si>
+  <si>
     <t>UeMHfcDD6QE</t>
   </si>
   <si>
     <t>469OGnmNdCQ</t>
   </si>
   <si>
+    <t>1:00 -1:10 Talks about sex. Don’t watch on stream</t>
+  </si>
+  <si>
     <t>nsfs</t>
   </si>
   <si>
-    <t>questionable</t>
-  </si>
-  <si>
-    <t>Cute puppy video. You good bro</t>
-  </si>
-  <si>
-    <t>JCS Video. Skip 3:00 - 4:00</t>
-  </si>
-  <si>
-    <t>1:00 -1:10 Talks about sex. Don’t watch on stream</t>
-  </si>
-  <si>
-    <t>Gordon curses at the Lettuce 0:23 - 0:45</t>
+    <t>kOLwDBcgSjs</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -78,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -106,13 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -401,21 +407,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,97 +433,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -529,9 +550,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -541,8 +565,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickl\Documents\GitHub\IsItToS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19C3D0D-9308-4CEE-B7C7-B88ACAA041F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -81,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +125,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +211,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +263,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,20 +456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="55.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -447,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -461,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -472,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -483,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -497,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -508,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -522,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -536,6 +582,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -545,12 +592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -560,12 +607,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,87 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>video_id</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>moderator_rating</t>
-  </si>
-  <si>
-    <t>age_restricted</t>
-  </si>
-  <si>
-    <t>birh9MMwzHI</t>
-  </si>
-  <si>
-    <t>Cute puppy video. You good bro</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>j3PLLOreTLY</t>
-  </si>
-  <si>
-    <t>JCS Video. Skip 3:00 - 4:00</t>
-  </si>
-  <si>
-    <t>questionable</t>
-  </si>
-  <si>
-    <t>qen0ZlZM0ZA</t>
-  </si>
-  <si>
-    <t>FAomglv541s</t>
-  </si>
-  <si>
-    <t>KDjBEY_3qCI</t>
-  </si>
-  <si>
-    <t>Gordon curses at the Lettuce 0:23 - 0:45</t>
-  </si>
-  <si>
-    <t>UeMHfcDD6QE</t>
-  </si>
-  <si>
-    <t>469OGnmNdCQ</t>
-  </si>
-  <si>
-    <t>1:00 -1:10 Talks about sex. Don’t watch on stream</t>
-  </si>
-  <si>
-    <t>nsfs</t>
-  </si>
-  <si>
-    <t>kOLwDBcgSjs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -197,6 +152,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -265,20 +222,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -400,7 +353,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -409,137 +401,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="55.25" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>video_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>comments</v>
+      </c>
+      <c r="C1" t="str">
+        <v>moderator_rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>age_restricted</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>birh9MMwzHI</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Cute puppy video. You good bro</v>
+      </c>
+      <c r="C2" t="str">
+        <v>safe</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>j3PLLOreTLY</v>
+      </c>
+      <c r="B3" t="str">
+        <v>JCS Video. Skip 3:00 - 4:00</v>
+      </c>
+      <c r="C3" t="str">
+        <v>questionable</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>qen0ZlZM0ZA</v>
+      </c>
+      <c r="C4" t="str">
+        <v>safe</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>FAomglv541s</v>
+      </c>
+      <c r="C5" t="str">
+        <v>safe</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KDjBEY_3qCI</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Gordon curses at the Lettuce 0:23 - 0:45</v>
+      </c>
+      <c r="C6" t="str">
+        <v>questionable</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>UeMHfcDD6QE</v>
+      </c>
+      <c r="C7" t="str">
+        <v>safe</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>469OGnmNdCQ</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1:00 -1:10 Talks about sex. Don’t watch on stream</v>
+      </c>
+      <c r="C8" t="str">
+        <v>nsfs</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>kOLwDBcgSjs</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>safe</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D9" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -548,13 +533,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -563,13 +547,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>video_id</v>
       </c>
       <c r="B1" t="str">
-        <v>comments</v>
+        <v>commentz</v>
       </c>
       <c r="C1" t="str">
-        <v>moderator_rating</v>
+        <v>moderatorRating</v>
       </c>
       <c r="D1" t="str">
         <v>age_restricted</v>
@@ -521,10 +521,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>7yzImCTv7A0</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>safe</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/database.xlsx
+++ b/database.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,10 +409,10 @@
         <v>video_id</v>
       </c>
       <c r="B1" t="str">
-        <v>commentz</v>
+        <v>comments</v>
       </c>
       <c r="C1" t="str">
-        <v>moderatorRating</v>
+        <v>moderator_rating</v>
       </c>
       <c r="D1" t="str">
         <v>age_restricted</v>
@@ -521,24 +521,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>7yzImCTv7A0</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v>safe</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,43 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olamemuliri/Downloads/IsItToS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753854F3-FEED-254F-B117-AB35E7033769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="520" yWindow="560" windowWidth="17540" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>video_id</t>
+  </si>
+  <si>
+    <t>age_restricted</t>
+  </si>
+  <si>
+    <t>birh9MMwzHI</t>
+  </si>
+  <si>
+    <t>Cute puppy video. You good bro</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>j3PLLOreTLY</t>
+  </si>
+  <si>
+    <t>JCS Video. Skip 3:00 - 4:00</t>
+  </si>
+  <si>
+    <t>questionable</t>
+  </si>
+  <si>
+    <t>qen0ZlZM0ZA</t>
+  </si>
+  <si>
+    <t>FAomglv541s</t>
+  </si>
+  <si>
+    <t>KDjBEY_3qCI</t>
+  </si>
+  <si>
+    <t>Gordon curses at the Lettuce 0:23 - 0:45</t>
+  </si>
+  <si>
+    <t>UeMHfcDD6QE</t>
+  </si>
+  <si>
+    <t>469OGnmNdCQ</t>
+  </si>
+  <si>
+    <t>1:00 -1:10 Talks about sex. Don’t watch on stream</t>
+  </si>
+  <si>
+    <t>nsfs</t>
+  </si>
+  <si>
+    <t>kOLwDBcgSjs</t>
+  </si>
+  <si>
+    <t>7yzImCTv7A0</t>
+  </si>
+  <si>
+    <t>Safe to watch on stream</t>
+  </si>
+  <si>
+    <t>Cool kitboga video</t>
+  </si>
+  <si>
+    <t>Safe for stream</t>
+  </si>
+  <si>
+    <t>Simpsons is safe to watch on stream</t>
+  </si>
+  <si>
+    <t>Bowling screens are dope</t>
+  </si>
+  <si>
+    <t>moderator_rating</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +138,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -120,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,9 +225,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,6 +277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -222,16 +328,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -353,206 +463,170 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="70.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>video_id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>comments</v>
-      </c>
-      <c r="C1" t="str">
-        <v>moderator_rating</v>
-      </c>
-      <c r="D1" t="str">
-        <v>age_restricted</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>birh9MMwzHI</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Cute puppy video. You good bro</v>
-      </c>
-      <c r="C2" t="str">
-        <v>safe</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>j3PLLOreTLY</v>
-      </c>
-      <c r="B3" t="str">
-        <v>JCS Video. Skip 3:00 - 4:00</v>
-      </c>
-      <c r="C3" t="str">
-        <v>questionable</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>qen0ZlZM0ZA</v>
-      </c>
-      <c r="C4" t="str">
-        <v>safe</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>FAomglv541s</v>
-      </c>
-      <c r="C5" t="str">
-        <v>safe</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>KDjBEY_3qCI</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Gordon curses at the Lettuce 0:23 - 0:45</v>
-      </c>
-      <c r="C6" t="str">
-        <v>questionable</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>UeMHfcDD6QE</v>
-      </c>
-      <c r="C7" t="str">
-        <v>safe</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>469OGnmNdCQ</v>
-      </c>
-      <c r="B8" t="str">
-        <v>1:00 -1:10 Talks about sex. Don’t watch on stream</v>
-      </c>
-      <c r="C8" t="str">
-        <v>nsfs</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>kOLwDBcgSjs</v>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <v>safe</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError sqref="B3:D3 A6:D6 A4 C4:D4 C5:D5 B8:D8 A7 C7:D7 A10 A9 C9:D9 C10:D10 A1 D1 B2:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olamemuliri/Downloads/IsItToS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753854F3-FEED-254F-B117-AB35E7033769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="560" windowWidth="17540" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="564" windowWidth="15996" windowHeight="5244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -25,6 +21,12 @@
     <t>video_id</t>
   </si>
   <si>
+    <t>commentz</t>
+  </si>
+  <si>
+    <t>moderatorRating</t>
+  </si>
+  <si>
     <t>age_restricted</t>
   </si>
   <si>
@@ -89,19 +91,13 @@
   </si>
   <si>
     <t>Bowling screens are dope</t>
-  </si>
-  <si>
-    <t>moderator_rating</t>
-  </si>
-  <si>
-    <t>comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,14 +134,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -192,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,155 +421,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="70.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="70.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -626,7 +576,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:D3 A6:D6 A4 C4:D4 C5:D5 B8:D8 A7 C7:D7 A10 A9 C9:D9 C10:D10 A1 D1 B2:D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D3 A6:D6 A4 C4:D4 A5 C5:D5 A8:D8 A7 C7:D7 A10 A9 C9:D9 C10:D10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>